--- a/src/main/java/com/qa/api/gorest/testdata/gorestdata.xlsx
+++ b/src/main/java/com/qa/api/gorest/testdata/gorestdata.xlsx
@@ -54,9 +54,6 @@
     <t>male</t>
   </si>
   <si>
-    <t>manvik@gmail.com</t>
-  </si>
-  <si>
     <t>http://manvik.com</t>
   </si>
   <si>
@@ -72,22 +69,25 @@
     <t>female</t>
   </si>
   <si>
-    <t>shanthi@gmail.com</t>
-  </si>
-  <si>
     <t>Veni</t>
   </si>
   <si>
-    <t>veni@gmail.com</t>
-  </si>
-  <si>
     <t>Sriswl</t>
   </si>
   <si>
-    <t>sriswl@gmail.com</t>
-  </si>
-  <si>
     <t>inactive</t>
+  </si>
+  <si>
+    <t>mannu123@gmail.com</t>
+  </si>
+  <si>
+    <t>shanthi1@gmail.com</t>
+  </si>
+  <si>
+    <t>veni1@gmail.com</t>
+  </si>
+  <si>
+    <t>sriswl1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -509,118 +509,118 @@
         <v>37257</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>12365478</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>37257</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>12365478</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>37257</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>12365478</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>37257</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>12365478</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="E4" r:id="rId5"/>
-    <hyperlink ref="G4" r:id="rId6"/>
-    <hyperlink ref="E5" r:id="rId7"/>
-    <hyperlink ref="G5" r:id="rId8"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="E5" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="E3" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/src/main/java/com/qa/api/gorest/testdata/gorestdata.xlsx
+++ b/src/main/java/com/qa/api/gorest/testdata/gorestdata.xlsx
@@ -78,16 +78,16 @@
     <t>inactive</t>
   </si>
   <si>
-    <t>mannu123@gmail.com</t>
-  </si>
-  <si>
-    <t>shanthi1@gmail.com</t>
-  </si>
-  <si>
-    <t>veni1@gmail.com</t>
-  </si>
-  <si>
-    <t>sriswl1@gmail.com</t>
+    <t>mann12@gmail.com</t>
+  </si>
+  <si>
+    <t>sha12@gmail.com</t>
+  </si>
+  <si>
+    <t>veni12@gmail.com</t>
+  </si>
+  <si>
+    <t>sri12@gmail.com</t>
   </si>
 </sst>
 </file>
